--- a/Project - venue.xlsx
+++ b/Project - venue.xlsx
@@ -5,33 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDYL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Mathematical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E883B969-B36D-49CF-838B-B74D34F105EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1A4CF4-DDC3-4ECD-801D-3307B49E7859}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5388" yWindow="672" windowWidth="12324" windowHeight="10104" activeTab="1" xr2:uid="{8C83B038-8656-46A6-A819-D5E873E5EF8D}"/>
+    <workbookView xWindow="204" yWindow="1668" windowWidth="10728" windowHeight="8388" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
   <si>
     <t>羽毛球</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,25 +126,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉软件工程职业学院体育馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海军工程大学木兰湖校区</t>
+    <t>东湖绿道马拉松及公路自行车场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东湖帆船及公开水域场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉口文体中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉体育中心游泳馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉汉南通用航空机场跳伞场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆军工程大学军械士官学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空军五项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天外天高尔夫球场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驿山高尔夫球场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江汉大学体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉体育中心体育场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉体育中心体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科技大学光谷体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省奥林匹克体育中心体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉体育学院体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆军工程大学军械士官学校体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东湖新技术开发区军事五项场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山江滩沙滩排球中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉城市职业学院体育馆</t>
+  </si>
+  <si>
+    <t>军运会运动员村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空军预警学院体育场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳逻机场飞行项目场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军运会媒体中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡甸国防园射击射箭场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商学院游泳馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商学院体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉阳江滩沙滩排球中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光谷板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄家湖板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后湖板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沌口板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学大学生体育活动中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉大学大学生体育活动中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海军工程大学木兰湖校区体育场馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>东西湖体育中心体育馆</t>
-  </si>
-  <si>
-    <t>武汉商学院</t>
-  </si>
-  <si>
-    <t>蔡甸国防园射箭场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商学院马术场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉商学院马术场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡甸国防园射击射箭场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>东湖绿道马拉松及公路自行车场地</t>
@@ -158,21 +297,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉理工大学</t>
+    <t>武汉理工大学体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉理工大学体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武汉体育馆</t>
-  </si>
-  <si>
-    <t>武汉商学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科技大学光谷体育馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武汉全民健身中心足球场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉口文体中心</t>
+  </si>
+  <si>
+    <t>武汉全民健身中心足球场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,190 +328,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔡甸国防园</t>
-  </si>
-  <si>
-    <t>武汉体育学院</t>
+    <t>东西湖体育中心体育场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡甸国防园射击射箭场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉体育学院体育馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>江夏区梁子湖铁人三项场地</t>
-  </si>
-  <si>
-    <t>武汉城市职业学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏区梁子湖铁人三项场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉城市职业学院体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江汉大学体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东湖绿道马拉松及公路自行车场地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武汉体育中心游泳馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江夏区定向越野场地</t>
+  </si>
+  <si>
+    <t>江夏八分山定向越野场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武汉汉南通用航空机场跳伞场地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陆军工程大学军械士官学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空军五项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天外天高尔夫球场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驿山高尔夫球场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江汉大学体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉体育中心体育场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空军武汉机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空军预警学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江夏区定向越野场地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉体育中心体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华中科技大学光谷体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪山体育馆</t>
+    <t>空军预警学院体育场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏八分山定向越野场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏八分山定向越野场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳逻机场飞行项目场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男子体操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省奥林匹克体育中心体育馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>光谷国际网球中心</t>
-  </si>
-  <si>
-    <t>湖北省奥林匹克体育中心体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉理工大学体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉体育学院体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉大学大学生体育活动中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆军工程大学军械士官学校体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东湖新技术开发区军事五项场地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青山江滩沙滩排球中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉城市职业学院体育馆</t>
-  </si>
-  <si>
-    <t>武汉城市职业学院体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军运会运动员村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江夏八分山定向越野场地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江夏梁子湖铁人三项场地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东西湖体育中心</t>
-  </si>
-  <si>
-    <t>空军预警学院体育场馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳逻机场飞行项目场地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海军工程大学木兰湖校区体育场馆及设施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉体育中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>军运会媒体中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔡甸国防园射击射箭场馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉商学院马术场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉商学院游泳馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉商学院体育馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉阳江滩沙滩排球中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光谷板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄家湖板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后湖板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沌口板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -538,7 +581,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -739,11 +782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13A9737-03B7-4D76-87EC-F85FFB5F4D10}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -758,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,10 +849,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -860,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,13 +911,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,10 +957,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,10 +968,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -944,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,7 +995,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,21 +1003,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -985,11 +1044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162621FC-E083-4CC4-A74E-321E40E50A2E}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -999,230 +1058,795 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
-        <v>81</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCAF023-0A5D-4606-A776-939C085E67E2}">
+  <dimension ref="A1:AL28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AL27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14633F29-E187-426F-BB0A-A0D77382C984}">
+  <dimension ref="A1:AK26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AD13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="AC15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>